--- a/downloaded_files/CMPS401_Tutorial-35539.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35539.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Abdelrahman Ashraf Mahmoud Ahmed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عبدالله احمد عارف محمود الدسوقي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AbdAllah Ahmad Aref Mahmoud AlDessoukey</x:t>
   </x:si>
   <x:si>
     <x:t>1220251</x:t>
@@ -371,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1082,7 +1073,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4143732986</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45916.4730354167</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45916.4730354167</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45914.0599210301</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.0599210301</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45913.7673747685</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45913.7673747685</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45916.0245447917</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45916.0245447917</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1515,38 +1506,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Tutorial-35539.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35539.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -60,15 +60,6 @@
     <x:t>Amira Mohamed Essam Ahmed Abdelghany</x:t>
   </x:si>
   <x:si>
-    <x:t>1210206</x:t>
-  </x:si>
-  <x:si>
-    <x:t>باسم اشرف محمد محمد الجلفي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>basem ashraf mohamed mohamed elgalfy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210207</x:t>
   </x:si>
   <x:si>
@@ -78,15 +69,6 @@
     <x:t>basim sherief zeenelabdeen abdel-azeem</x:t>
   </x:si>
   <x:si>
-    <x:t>4220118</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رحاب احمد عبدالباسط احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rehab Ahmed Abdelbaset Ahmed Abdelfattah</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220243</x:t>
   </x:si>
   <x:si>
@@ -202,15 +184,6 @@
   </x:si>
   <x:si>
     <x:t>Marwan Mohamed Salah Eldin Emam</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210306</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مصطفى أحمد عبدالفتاح القرشي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mostafa Ahmed Abdelfatah Elkorashy</x:t>
   </x:si>
   <x:si>
     <x:t>1210381</x:t>
@@ -362,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -849,7 +822,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4146423958</x:v>
+        <x:v>45906.4144067477</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -881,7 +854,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4144067477</x:v>
+        <x:v>45906.6649866551</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -913,7 +886,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4143678588</x:v>
+        <x:v>45906.6648877315</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -945,7 +918,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.6649866551</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -977,7 +950,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6648877315</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1009,7 +982,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1041,7 +1014,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1073,7 +1046,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1078,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45916.4730354167</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45916.4730354167</x:v>
+        <x:v>45914.0599210301</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.0599210301</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45913.7673747685</x:v>
+        <x:v>45916.0245447917</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1366,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1410,102 +1383,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45906.6644244213</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45916.0245447917</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Tutorial-35539.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35539.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Saja Ahmed Nabeel Mohammed Elsaeed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210238</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى ناصر عبدالوهاب الحسيني</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
   </x:si>
   <x:si>
     <x:t>1210013</x:t>
@@ -335,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -886,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6648877315</x:v>
+        <x:v>45906.4143372338</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4143372338</x:v>
+        <x:v>45906.6644613079</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.6644613079</x:v>
+        <x:v>45906.6646892361</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.6646892361</x:v>
+        <x:v>45906.4146315625</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4146315625</x:v>
+        <x:v>45906.4251809375</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4251809375</x:v>
+        <x:v>45916.4730354167</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45916.4730354167</x:v>
+        <x:v>45906.4163405093</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4163405093</x:v>
+        <x:v>45914.0599210301</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.0599210301</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45916.0245447917</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45916.0245447917</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1351,38 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Tutorial-35539.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35539.xlsx
@@ -141,15 +141,6 @@
     <x:t>Mohamed Maher Mohamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1210416</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد ممدوح سيد محمد السمرى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Mamdouh Sayed Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>4220141</x:t>
   </x:si>
   <x:si>
@@ -184,6 +175,15 @@
   </x:si>
   <x:si>
     <x:t>Nada Abdallah Mahmoud el said</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220145</x:t>
+  </x:si>
+  <x:si>
+    <x:t>نور الدين حسن حامد محمد خلف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1220211</x:t>
@@ -1101,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.0599210301</x:v>
+        <x:v>45906.4174892361</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4174892361</x:v>
+        <x:v>45906.4143614583</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4143614583</x:v>
+        <x:v>45906.4143641551</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45928.5502585648</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>

--- a/downloaded_files/CMPS401_Tutorial-35539.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35539.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -157,15 +157,6 @@
   </x:si>
   <x:si>
     <x:t>Mahmoud Mohammed Mounir Loutfy Mohammed Abdel-Moniem Loutfy Loutfy</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مروان محمد صلاح الدين امام</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Marwan Mohamed Salah Eldin Emam</x:t>
   </x:si>
   <x:si>
     <x:t>1210381</x:t>
@@ -326,7 +317,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +617,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1165,7 +1156,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4143641551</x:v>
+        <x:v>45909.4150782755</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1188,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4150782755</x:v>
+        <x:v>45928.5502585648</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1220,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45928.5502585648</x:v>
+        <x:v>45906.6644244213</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1252,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6644244213</x:v>
+        <x:v>45916.0245447917</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1284,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45916.0245447917</x:v>
+        <x:v>45906.6651076736</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1310,38 +1301,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45906.6651076736</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS401_Tutorial-35539.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35539.xlsx
@@ -39,7 +39,7 @@
     <x:t>احمد سامح صلاح مصيلحى</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Sameh Salah</x:t>
+    <x:t>Ahmed Sameh Salah Moselhi</x:t>
   </x:si>
   <x:si>
     <x:t>1210194</x:t>
@@ -129,7 +129,7 @@
     <x:t>محمد اشرف محمد كرم الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohamed Ashraf Mohamed</x:t>
+    <x:t>Mohamed Ashraf Mohamed Karam Allah</x:t>
   </x:si>
   <x:si>
     <x:t>4220140</x:t>

--- a/downloaded_files/CMPS401_Tutorial-35539.xlsx
+++ b/downloaded_files/CMPS401_Tutorial-35539.xlsx
@@ -1307,11 +1307,11 @@
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter differentOddEven="0" differentFirst="0" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Sunday(13:16)</x:oddHeader>
+    <x:oddHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Sunday(14:16)</x:oddHeader>
     <x:oddFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:oddFooter>
-    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Sunday(13:16)</x:evenHeader>
+    <x:evenHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Sunday(14:16)</x:evenHeader>
     <x:evenFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:evenFooter>
-    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Sunday(13:16)</x:firstHeader>
+    <x:firstHeader>&amp;L&amp;"-,Regular"Fall-2025&amp;C&amp;"-,Regular"Class list for Tutorial Advanced Database Systems (CMPS401) Location : 2nd floor lab 4 Time : Sunday(14:16)</x:firstHeader>
     <x:firstFooter>&amp;C&amp;"-,Regular"Page &amp;P of &amp;N</x:firstFooter>
   </x:headerFooter>
   <x:tableParts count="1">
